--- a/veritabanıERdönüşümÖrnek.xlsx
+++ b/veritabanıERdönüşümÖrnek.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasta\Desktop\veritabani-yonetim-sistemleri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FD7A2D-56EE-4E9C-BC7A-CB86CBA6440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F9459F-97F0-4533-9EEA-0CACB75B6DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD159A6F-EE07-4CC4-80C9-63E4576A9E97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TABLES" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>ÜYELER</t>
   </si>
@@ -164,20 +165,86 @@
     <t>BULUNUR</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Miktar</t>
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Taştanberk</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>emretasta@gmail.com</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Kayseri</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Yıldırım</t>
+  </si>
+  <si>
+    <t>Anayurt</t>
+  </si>
+  <si>
+    <t>cadde1</t>
+  </si>
+  <si>
+    <t>Erkilet</t>
+  </si>
+  <si>
+    <t>açıklama1</t>
+  </si>
+  <si>
+    <t>Kırmızı ve siyah</t>
+  </si>
+  <si>
+    <t>Saatleri Ayarlama</t>
+  </si>
+  <si>
+    <t>Yabancı</t>
+  </si>
+  <si>
+    <t>Türk</t>
+  </si>
+  <si>
+    <t>Ahmet Hamdi</t>
+  </si>
+  <si>
+    <t>Tanpınar</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beyle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali </t>
+  </si>
+  <si>
+    <t>Yanar</t>
+  </si>
+  <si>
+    <t>alida@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +261,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -260,25 +342,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,7 +703,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,33 +729,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="R1" s="7"/>
+      <c r="U1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -675,7 +764,7 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
@@ -684,7 +773,7 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
@@ -693,7 +782,7 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N2" t="s">
@@ -702,7 +791,7 @@
       <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R2" t="s">
@@ -711,7 +800,7 @@
       <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="V2" t="s">
@@ -804,15 +893,6 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -833,14 +913,14 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" t="s">
-        <v>34</v>
+      <c r="M6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -856,25 +936,25 @@
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
+      <c r="M7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="N7" t="s">
         <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -883,44 +963,24 @@
         <v>13</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="M10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -938,9 +998,6 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -949,11 +1006,14 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -963,56 +1023,47 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1028,4 +1079,461 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9527FB07-507D-4590-A59F-5189FA2DC0E5}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>5456910654</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>5313543254</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+      <c r="I8" s="11">
+        <v>33645</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9" s="11">
+        <v>37067</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>45716</v>
+      </c>
+      <c r="H13" s="11">
+        <v>45731</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>45716</v>
+      </c>
+      <c r="H14" s="11">
+        <v>45731</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="O6:P6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A4E25D85-7279-42B4-8EB5-95A62B5B3C24}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{37089396-FF24-4DD9-8C8B-120B9B4FAED2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>